--- a/Portio weboldal tesztelése.xlsx
+++ b/Portio weboldal tesztelése.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gyömbér Judit\IdeaProjects\TestingPortioWebpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3B28F5-E60C-40CC-8158-4219243E0639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA58AC-5D4B-46FD-8B9D-16BECB4FE0C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="hibák (bug)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tesztesetek (test case)'!$F$37:$F$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tesztesetek (test case)'!$F$36:$F$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="144">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -384,18 +384,6 @@
     <t>Contact Me gomb validálása</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1. Bejelentkezés
-2. Hire Me Now gombra kattintás
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Bejelentkezés
-2. Contact Me gombra kattintás
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Felhasználónév: lovasia
 Jelszó: kispal123
 </t>
@@ -432,57 +420,10 @@
 </t>
   </si>
   <si>
-    <t>!!!!!!!! A gépen sikeres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Bejelentkezés
-2.Logout gombra kattintás
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-2. Bejelentkezés
-3. Profil gombra kattintás
-4. Név megadása
-5. Nem megadása
-6. Telefonszám megadása
-7. Save Profile gombra kettintás
-</t>
-  </si>
-  <si>
     <t>Contact oldalról a HomePage-re navigálás</t>
   </si>
   <si>
     <t>Home linkre kattintással</t>
-  </si>
-  <si>
-    <t>Vissza nyíllal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Bejelentkezés
-2. Contact Me gombra kattintás
-3. Vissza nyílra kattintás
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Bejelentkezés
-2. Contact Me gombra kattintás
-3. Home linkre kattintás
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Bejelentkezés
-2. Hire Me Now gombra kattintás
-3. Contact Form megkeresése
-4. Név megadása
-5. Email megadása
-6. Üzenet írása
-7. Adatnyilatkozat elfogadása
-8. Send Message gombra kattintás</t>
   </si>
   <si>
     <t>TC41</t>
@@ -498,34 +439,11 @@
 </t>
   </si>
   <si>
-    <t>Megtekinthető profil</t>
-  </si>
-  <si>
-    <t>Nem megtekinthető a profil</t>
-  </si>
-  <si>
-    <t>TC43</t>
-  </si>
-  <si>
-    <t>Profil beállítás eredménye</t>
-  </si>
-  <si>
     <t>Felhasználói fiók törlése</t>
   </si>
   <si>
     <t>Warning message: I am sure! Delete my account
 Message: Username or Password is not correct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-2. Bejelentkezés
-3. Profil gombra kattintás
-8. Delete account gombra kattintás
-9. Confirmation gombra kattintás
-10. Felhasználónév megadása
-11. Jelszó megadása
-12. Login gombra kattintás
-</t>
   </si>
   <si>
     <t>Sikeres törlés</t>
@@ -536,6 +454,119 @@
   </si>
   <si>
     <t>Message: Profile Edited!</t>
+  </si>
+  <si>
+    <t>Bejelentkezés regisztráció nélkül</t>
+  </si>
+  <si>
+    <t>Felhasználónév: tesztelek
+Jelszó: teszt</t>
+  </si>
+  <si>
+    <t>Message: Username or Password
+is not correct!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Bejelentkezés
+4.Logout gombra kattintás
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Regisztráció
+4. Bejelentkezés
+5. Profil gombra kattintás
+6. Név megadása
+7. Nem megadása
+8. Telefonszám megadása
+9. Save Profile gombra kettintás
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Regisztráció
+4. Bejelentkezés
+5. Profil gombra kattintás
+6. Delete account gombra kattintás
+7. Confirmation gombra kattintás
+8. Felhasználónév megadása
+9. Jelszó megadása
+10. Login gombra kattintás
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Bejelentkezés
+4. Hire Me Now gombra kattintás
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Bejelentkezés
+4. Contact Me gombra kattintás
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Bejelentkezés
+4. Contact Me gombra kattintás
+5. Home linkre kattintás
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Bejelentkezés
+4. Hire Me Now gombra kattintás
+5. Contact Form megkeresése
+6. Név megadása
+7. Email megadása
+8. Üzenet írása
+9. Adatnyilatkozat elfogadása
+10. Send Message gombra kattintás</t>
+  </si>
+  <si>
+    <t>Profil beállítás láthatósága</t>
+  </si>
+  <si>
+    <t>Felhasználónév megjelenése a profilon</t>
+  </si>
+  <si>
+    <t>Nem jelenik meg a felhasználónév a profilon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Bejelentkezés
+4. Profil gombra kattintás
+5. Név megadása
+6. Nem megadása
+7. Telefonszám megadása
+8. Save Profile gombra kettintás
+9. HomePage-re navigálás
+10. Felhasználónév megtekintése
+</t>
+  </si>
+  <si>
+    <t>!!!!!!!! Automata tesztnél sikeres</t>
+  </si>
+  <si>
+    <t>Alacsony</t>
   </si>
 </sst>
 </file>
@@ -1115,11 +1146,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1011"/>
+  <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1361,10 +1392,10 @@
         <v>62</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>68</v>
@@ -1409,10 +1440,10 @@
         <v>62</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>70</v>
@@ -1459,10 +1490,10 @@
         <v>62</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>70</v>
@@ -1507,10 +1538,10 @@
         <v>62</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>68</v>
@@ -1522,7 +1553,7 @@
         <v>65</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1538,36 +1569,40 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="49.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
       <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5" t="s">
-        <v>106</v>
+        <v>128</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>75</v>
+      <c r="H9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -1582,40 +1617,36 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="I10" s="5"/>
       <c r="J10" s="3" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="M10" s="3"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1630,34 +1661,40 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
       <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="10"/>
+      <c r="F11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="3" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -1672,36 +1709,38 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="10"/>
+      <c r="F12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="H12" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>139</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>137</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M12" s="3"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -1716,36 +1755,40 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="61.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:26" ht="169.5" thickTop="1" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>62</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I13" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="J13" s="3" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -1760,22 +1803,24 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="49.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="G14" s="10" t="s">
         <v>62</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="3" t="s">
@@ -1802,29 +1847,31 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="61.5" thickTop="1" thickBot="1">
+    <row r="15" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
       <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="10"/>
+      <c r="F15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="H15" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>29</v>
@@ -1844,36 +1891,40 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="61.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:26" ht="157.5" thickTop="1" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>123</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="G16" s="10" t="s">
         <v>62</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" s="5"/>
+        <v>137</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="J16" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -1888,38 +1939,38 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
+    <row r="17" spans="1:26" ht="85.5" thickTop="1" thickBot="1">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="G17" s="10" t="s">
         <v>62</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>82</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="I17" s="5"/>
       <c r="J17" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="M17" s="3"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -1938,7 +1989,7 @@
       <c r="A18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1970,7 +2021,7 @@
       <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1979,7 +2030,7 @@
         <v>62</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="5"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="5"/>
@@ -2043,7 +2094,7 @@
         <v>62</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="5"/>
@@ -2559,7 +2610,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="3"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -2591,7 +2642,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="8"/>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -2704,7 +2755,7 @@
     </row>
     <row r="42" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A42" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2736,7 +2787,7 @@
     </row>
     <row r="43" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2766,23 +2817,19 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A44" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="5"/>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -2798,7 +2845,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" thickTop="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -8006,34 +8053,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="2"/>
-      <c r="M231" s="2"/>
-      <c r="N231" s="2"/>
-      <c r="O231" s="2"/>
-      <c r="P231" s="2"/>
-      <c r="Q231" s="2"/>
-      <c r="R231" s="2"/>
-      <c r="S231" s="2"/>
-      <c r="T231" s="2"/>
-      <c r="U231" s="2"/>
-      <c r="V231" s="2"/>
-      <c r="W231" s="2"/>
-      <c r="X231" s="2"/>
-      <c r="Y231" s="2"/>
-      <c r="Z231" s="2"/>
-    </row>
+    <row r="231" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="232" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="233" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="234" spans="1:26" ht="15.75" customHeight="1"/>
@@ -8813,103 +8833,102 @@
     <row r="1008" ht="15.75" customHeight="1"/>
     <row r="1009" ht="15.75" customHeight="1"/>
     <row r="1010" ht="15.75" customHeight="1"/>
-    <row r="1011" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="F26:F27 F30:F44 F2:F23">
+  <conditionalFormatting sqref="F25:F26 F29:F43 F2:F22">
     <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27 F30:F44 F2:F23">
+  <conditionalFormatting sqref="F25:F26 F29:F43 F2:F22">
     <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F27 F30:F44 F2:F23">
+  <conditionalFormatting sqref="F25:F26 F29:F43 F2:F22">
     <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:L27 L30:L44 L2:L23">
+  <conditionalFormatting sqref="L25:L26 L29:L43 L2:L22">
     <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:L27 L30:L44 L2:L23">
+  <conditionalFormatting sqref="L25:L26 L29:L43 L2:L22">
     <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:L27 L30:L44 L2:L23">
+  <conditionalFormatting sqref="L25:L26 L29:L43 L2:L22">
     <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F29">
+  <conditionalFormatting sqref="F27:F28">
     <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F25">
+  <conditionalFormatting sqref="F23:F24">
     <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F25">
+  <conditionalFormatting sqref="F23:F24">
     <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F25">
+  <conditionalFormatting sqref="F23:F24">
     <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24:L25">
+  <conditionalFormatting sqref="L23:L24">
     <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24:L25">
+  <conditionalFormatting sqref="L23:L24">
     <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L24:L25">
+  <conditionalFormatting sqref="L23:L24">
     <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F29">
+  <conditionalFormatting sqref="F27:F28">
     <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F29">
+  <conditionalFormatting sqref="F27:F28">
     <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28:L29">
+  <conditionalFormatting sqref="L27:L28">
     <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28:L29">
+  <conditionalFormatting sqref="L27:L28">
     <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28:L29">
+  <conditionalFormatting sqref="L27:L28">
     <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="L2:L44" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="L2:L43" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Siker,Nem futtatható,Hiba"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F44" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F43" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Magas,Normál,Alacsony"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Portio weboldal tesztelése.xlsx
+++ b/Portio weboldal tesztelése.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gyömbér Judit\IdeaProjects\TestingPortioWebpage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA58AC-5D4B-46FD-8B9D-16BECB4FE0C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5777BC-4F31-4C13-8FAC-2F49834652B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="163">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -567,6 +567,100 @@
   </si>
   <si>
     <t>Alacsony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Bejelentkezés
+4. Work linkre kattintás
+</t>
+  </si>
+  <si>
+    <t>WorkPage-re navigálás</t>
+  </si>
+  <si>
+    <t>Work linkre kattintással</t>
+  </si>
+  <si>
+    <t>A portfólió mennyisége</t>
+  </si>
+  <si>
+    <t>A portfólió tartalma</t>
+  </si>
+  <si>
+    <t>4 db munka van a portfólióban</t>
+  </si>
+  <si>
+    <t>A 4 munka megnevezésének helyes felsorolása</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Bejelentkezés
+4. Work linkre kattintás
+5.A portfólió tartalmának megszámolása
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Bejelentkezés
+4. Work linkre kattintás
+5. A portfólió munkadarabjai elnevezésének kigyűjtése
+</t>
+  </si>
+  <si>
+    <t>Végiglapoz a munkákon, az utolsó munka oldalán áll meg - Recipe App Ux StudyPage</t>
+  </si>
+  <si>
+    <t>A nyíl nem kattintható</t>
+  </si>
+  <si>
+    <t>A nyílra kattitntva lapoz a munkák közt</t>
+  </si>
+  <si>
+    <t>A munkák közti navigálás a nextCase nyílra kattintással</t>
+  </si>
+  <si>
+    <t>A CaseStudyOne linkre kattintással navigálás a CaseStudyOne oldalra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Bejelentkezés
+4. Work linkre kattintás
+5. A CaseStudyOne linkre kattintás
+</t>
+  </si>
+  <si>
+    <t>A CaseStudyOne oldalra navigálás</t>
+  </si>
+  <si>
+    <t>A munkák közti navigálás - a NextCase alatti linkre kattintással</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Bejelentkezés
+4. Work linkre kattintás
+5. A CaseStudyOne linkre kattintás
+6. NextCase nyílra kattintás
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Adott oldalra navigálás
+2. Feltételek elfogadása
+3. Bejelentkezés
+4. Work linkre kattintás
+5. A CaseStudyOne linkre kattintás
+6. NextCase nyíl alatti linkre kattintás, míg az utolsó oldalra érünk
+</t>
   </si>
 </sst>
 </file>
@@ -686,7 +780,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1148,9 +1242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I17" sqref="I17"/>
+      <selection pane="topRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1985,23 +2079,37 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:26" ht="73.5" thickTop="1" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="G18" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="5"/>
+      <c r="J18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2017,23 +2125,35 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
       <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="G19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="5"/>
+      <c r="J19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2049,23 +2169,35 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="G20" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="I20" s="7"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="5"/>
+      <c r="J20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2081,23 +2213,33 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:26" ht="97.5" thickTop="1" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="G21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="5"/>
+      <c r="H21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2113,23 +2255,35 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:26" ht="109.5" thickTop="1" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="G22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="5"/>
+      <c r="J22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2145,23 +2299,35 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:26" ht="133.5" thickTop="1" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="G23" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="5"/>
+      <c r="J23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -8834,32 +9000,32 @@
     <row r="1009" ht="15.75" customHeight="1"/>
     <row r="1010" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="F25:F26 F29:F43 F2:F22">
+  <conditionalFormatting sqref="F25:F26 F29:F43 F2:F23">
     <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F26 F29:F43 F2:F22">
+  <conditionalFormatting sqref="F25:F26 F29:F43 F2:F23">
     <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F26 F29:F43 F2:F22">
+  <conditionalFormatting sqref="F25:F26 F29:F43 F2:F23">
     <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:L26 L29:L43 L2:L22">
+  <conditionalFormatting sqref="L25:L26 L29:L43 L2:L23">
     <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:L26 L29:L43 L2:L22">
+  <conditionalFormatting sqref="L25:L26 L29:L43 L2:L23">
     <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:L26 L29:L43 L2:L22">
+  <conditionalFormatting sqref="L25:L26 L29:L43 L2:L23">
     <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
